--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\leerjaar 2\project5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0010741-6CAF-4CDD-8CE7-57EA84C0DCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8498A80-5E07-42C4-8FE2-8BC8FBE68C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>User_id</t>
+  </si>
+  <si>
+    <t>Prestaties</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="B2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,6 +459,11 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
